--- a/Code/Python/Experiments/Light_experiment_11-10_and_23-11.xlsx
+++ b/Code/Python/Experiments/Light_experiment_11-10_and_23-11.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t xml:space="preserve">Lamp 60 W halogeen</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Digikey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85</t>
   </si>
   <si>
     <t xml:space="preserve">Nuon Solar</t>
@@ -213,11 +210,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,11 +592,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,10 +1131,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,16 +1463,16 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,14 +1525,14 @@
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
+      <c r="B4" s="0" t="n">
+        <v>3.85</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3966</v>
+        <v>3.966</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3731</v>
+        <v>3.731</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4.031</v>
@@ -1548,7 +1543,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1.369</v>
@@ -1568,27 +1563,27 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>43062</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Python/Experiments/Light_experiment_11-10_and_23-11.xlsx
+++ b/Code/Python/Experiments/Light_experiment_11-10_and_23-11.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t xml:space="preserve">Lamp 60 W halogeen</t>
   </si>
@@ -58,10 +58,16 @@
     <t xml:space="preserve">OLD</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">Solar panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG</t>
   </si>
   <si>
     <t xml:space="preserve">Chineese</t>
@@ -202,17 +208,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,12 +242,6 @@
       <c r="D2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -254,10 +257,14 @@
         <v>26.08</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>577</v>
+        <f aca="false">AVERAGE(B3:D3)</f>
+        <v>26.2766666666667</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,10 +281,14 @@
         <v>6.481</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2460</v>
+        <f aca="false">AVERAGE(B4:D4)</f>
+        <v>6.453</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>23</v>
+        <v>577</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,10 +305,14 @@
         <v>3.124</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>5790</v>
+        <f aca="false">AVERAGE(B5:D5)</f>
+        <v>3.08366666666667</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>25</v>
+        <v>2460</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,9 +329,21 @@
         <v>1.356</v>
       </c>
       <c r="E6" s="0" t="n">
+        <f aca="false">AVERAGE(B6:D6)</f>
+        <v>1.34833333333333</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5790</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="n">
         <v>9550</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>42</v>
       </c>
     </row>
@@ -353,10 +380,8 @@
         <v>17.64</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1179</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>23</v>
+        <f aca="false">AVERAGE(B10:D10)</f>
+        <v>17.5936666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,10 +398,14 @@
         <v>6.694</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2496</v>
+        <f aca="false">AVERAGE(B11:D11)</f>
+        <v>6.721</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>25</v>
+        <v>1179</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,9 +422,21 @@
         <v>2.706</v>
       </c>
       <c r="E12" s="0" t="n">
+        <f aca="false">AVERAGE(B12:D12)</f>
+        <v>2.19266666666667</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2496</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0" t="n">
         <v>8760</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>35</v>
       </c>
     </row>
@@ -417,9 +458,6 @@
       <c r="D15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -435,10 +473,11 @@
         <v>18.15</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1027</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>26</v>
+        <f aca="false">AVERAGE(B16:D16)</f>
+        <v>17.9133333333333</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,10 +494,14 @@
         <v>7.843</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2046</v>
+        <f aca="false">AVERAGE(B17:D17)</f>
+        <v>7.828</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>25</v>
+        <v>1027</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,9 +518,21 @@
         <v>1.029</v>
       </c>
       <c r="E18" s="0" t="n">
+        <f aca="false">AVERAGE(B18:D18)</f>
+        <v>0.993766666666667</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2046</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="n">
         <v>9860</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>37</v>
       </c>
     </row>
@@ -514,10 +569,8 @@
         <v>9.496</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>821</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>31</v>
+        <f aca="false">AVERAGE(B22:D22)</f>
+        <v>9.46233333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,10 +587,14 @@
         <v>2.048</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2652</v>
+        <f aca="false">AVERAGE(B23:D23)</f>
+        <v>1.88033333333333</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>37</v>
+        <v>821</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,9 +611,21 @@
         <v>0.74</v>
       </c>
       <c r="E24" s="0" t="n">
+        <f aca="false">AVERAGE(B24:D24)</f>
+        <v>0.734066666666667</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2652</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="n">
         <v>10550</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>66</v>
       </c>
     </row>
@@ -592,11 +661,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,10 +1198,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,6 +1223,9 @@
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1441,7 +1509,7 @@
         <v>1.77166666666667</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1460,24 +1528,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -1489,15 +1555,18 @@
         <v>3</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4.12</v>
@@ -1514,16 +1583,20 @@
       <c r="F3" s="0" t="n">
         <v>3.725</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="G3" s="0" t="n">
+        <f aca="false">AVERAGE(B3:F3)</f>
+        <v>3.8248</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3.85</v>
@@ -1540,10 +1613,14 @@
       <c r="F4" s="0" t="n">
         <v>3.856</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">AVERAGE(B4:F4)</f>
+        <v>3.8868</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1.369</v>
@@ -1560,30 +1637,34 @@
       <c r="F5" s="0" t="n">
         <v>1.428</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">AVERAGE(B5:F5)</f>
+        <v>1.4044</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>43062</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Python/Experiments/Light_experiment_11-10_and_23-11.xlsx
+++ b/Code/Python/Experiments/Light_experiment_11-10_and_23-11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chineese panel 50x50" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t xml:space="preserve">Lamp 60 W halogeen</t>
   </si>
@@ -52,22 +52,22 @@
     <t xml:space="preserve">Current temp: no light</t>
   </si>
   <si>
+    <t xml:space="preserve">Normalization</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avg</t>
   </si>
   <si>
-    <t xml:space="preserve">OLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
+    <t xml:space="preserve">Scaling to chineese</t>
   </si>
   <si>
     <t xml:space="preserve">Solar panel</t>
   </si>
   <si>
     <t xml:space="preserve">AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected</t>
   </si>
   <si>
     <t xml:space="preserve">Chineese</t>
@@ -211,17 +211,17 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="F21:F23 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,23 +653,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.61224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -685,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,6 +712,10 @@
         <f aca="false">(B3+C3+D3)/3</f>
         <v>49.6966666666667</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">(43*34)/1600*E3</f>
+        <v>45.4103291666667</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -723,6 +734,10 @@
         <f aca="false">(B4+C4+D4)/3</f>
         <v>8.759</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">(43*34)/1600*E4</f>
+        <v>8.00353625</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -741,6 +756,10 @@
         <f aca="false">(B5+C5+D5)/3</f>
         <v>2.75666666666667</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">(43*34)/1600*E5</f>
+        <v>2.51890416666667</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -761,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,6 +800,10 @@
         <f aca="false">(B9+C9+D9)/3</f>
         <v>16.9966666666667</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">(43*34)/1600*E9</f>
+        <v>15.5307041666667</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -799,6 +822,10 @@
         <f aca="false">(B10+C10+D10)/3</f>
         <v>6.214</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">(43*34)/1600*E10</f>
+        <v>5.6780425</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -817,6 +844,10 @@
         <f aca="false">(B11+C11+D11)/3</f>
         <v>0.8214</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">(43*34)/1600*E11</f>
+        <v>0.75055425</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -837,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,6 +888,10 @@
         <f aca="false">(B15+C15+D15)/3</f>
         <v>10.1533333333333</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">(43*34)/1600*E15</f>
+        <v>9.2776083333333</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -875,6 +910,10 @@
         <f aca="false">(B16+C16+D16)/3</f>
         <v>2.92</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">(43*34)/1600*E16</f>
+        <v>2.66815</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -893,6 +932,10 @@
         <f aca="false">(B17+C17+D17)/3</f>
         <v>0.5065</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">(43*34)/1600*E17</f>
+        <v>0.462814375</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -913,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,6 +976,10 @@
         <f aca="false">(B21+C21+D21)/3</f>
         <v>7.63166666666667</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">(43*34)/1600*E21</f>
+        <v>6.97343541666667</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -951,6 +998,10 @@
         <f aca="false">(B22+C22+D22)/3</f>
         <v>1.632</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">(43*34)/1600*E22</f>
+        <v>1.49124</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -969,209 +1020,9 @@
         <f aca="false">(B23+C23+D23)/3</f>
         <v>0.563466666666667</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>66.29</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>52.61</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>67.66</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>19.02</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>3.738</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>4.021</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>4.114</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>19.72</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>19.98</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1.385</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1.408</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1.357</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5054</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>4.876</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>10</v>
+      <c r="F23" s="0" t="n">
+        <f aca="false">(43*34)/1600*E23</f>
+        <v>0.514867666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1190,16 +1041,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="M23" activeCellId="1" sqref="F21:F23 M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,6 +1098,10 @@
         <f aca="false">(B3+C3+D3)/3</f>
         <v>53.3333333333333</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">E3*2</f>
+        <v>106.666666666667</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1262,6 +1120,10 @@
         <f aca="false">(B4+C4+D4)/3</f>
         <v>11.5266666666667</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">E4*2</f>
+        <v>23.0533333333334</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1280,6 +1142,10 @@
         <f aca="false">(B5+C5+D5)/3</f>
         <v>2.81033333333333</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">E5*2</f>
+        <v>5.62066666666666</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1300,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,6 +1186,10 @@
         <f aca="false">(B9+C9+D9)/3</f>
         <v>12.09</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">E9*2</f>
+        <v>24.18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1338,6 +1208,10 @@
         <f aca="false">(B10+C10+D10)/3</f>
         <v>4.123</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">E10*2</f>
+        <v>8.246</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1356,6 +1230,10 @@
         <f aca="false">(B11+C11+D11)/3</f>
         <v>1.61033333333333</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">E11*2</f>
+        <v>3.22066666666666</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -1376,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,6 +1274,10 @@
         <f aca="false">(B15+C15+D15)/3</f>
         <v>23.1</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">E15*2</f>
+        <v>46.2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1414,6 +1296,10 @@
         <f aca="false">(B16+C16+D16)/3</f>
         <v>9.87666666666667</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">E16*2</f>
+        <v>19.7533333333333</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1432,6 +1318,10 @@
         <f aca="false">(B17+C17+D17)/3</f>
         <v>0.7726</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">E17*2</f>
+        <v>1.5452</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1452,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,6 +1362,10 @@
         <f aca="false">(B21+C21+D21)/3</f>
         <v>46.9566666666667</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">E21*2</f>
+        <v>93.9133333333334</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1490,6 +1384,10 @@
         <f aca="false">(B22+C22+D22)/3</f>
         <v>10.1633333333333</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">E22*2</f>
+        <v>20.3266666666666</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1508,8 +1406,9 @@
         <f aca="false">(B23+C23+D23)/3</f>
         <v>1.77166666666667</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>12</v>
+      <c r="F23" s="0" t="n">
+        <f aca="false">E23*2</f>
+        <v>3.54333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1528,39 +1427,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="F21:F23 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="I2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1569,28 +1481,35 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>4.12</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>3.887</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>3.664</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>3.728</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>3.725</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
+      <c r="H3" s="0" t="n">
+        <f aca="false">AVERAGE(C3:G3)</f>
         <v>3.8248</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="0" t="n">
+        <f aca="false">B3*H3</f>
+        <v>3.8248</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1599,23 +1518,31 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
+        <f aca="false">(43*34)/1600</f>
+        <v>0.91375</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>3.85</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>3.966</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>3.731</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>4.031</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>3.856</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
+      <c r="H4" s="0" t="n">
+        <f aca="false">AVERAGE(C4:G4)</f>
         <v>3.8868</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">B4*H4</f>
+        <v>3.5515635</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,23 +1550,31 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
+        <f aca="false">((80*40)-1.35*1.35)/1600</f>
+        <v>1.9988609375</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>1.369</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>1.427</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>1.428</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>1.37</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>1.428</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
+      <c r="H5" s="0" t="n">
+        <f aca="false">AVERAGE(C5:G5)</f>
         <v>1.4044</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">B5*H5</f>
+        <v>2.807200300625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
